--- a/tunbis/tunbis/unit.xlsx
+++ b/tunbis/tunbis/unit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12444"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12444"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -760,7 +760,7 @@
   <dimension ref="A2:I69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:H51"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>34</v>
       </c>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>35</v>
       </c>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>37</v>
       </c>
